--- a/data-raw/eex_ddh_JSON_lookup_complex.xlsx
+++ b/data-raw/eex_ddh_JSON_lookup_complex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E9D59-6B2B-43FA-AD97-A7608D225D8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D4449-E16F-45B4-AE8F-572236FB098A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,19 +34,19 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>$result$topic</t>
-  </si>
-  <si>
-    <t>$result$group</t>
-  </si>
-  <si>
-    <t>$result$release_date</t>
-  </si>
-  <si>
-    <t>$result$license_id</t>
-  </si>
-  <si>
-    <t>$result$format</t>
+    <t>$topic</t>
+  </si>
+  <si>
+    <t>$group</t>
+  </si>
+  <si>
+    <t>$release_date</t>
+  </si>
+  <si>
+    <t>$license_id</t>
+  </si>
+  <si>
+    <t>$format</t>
   </si>
   <si>
     <t>field_external_metadata</t>
@@ -416,13 +416,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/data-raw/eex_ddh_JSON_lookup_complex.xlsx
+++ b/data-raw/eex_ddh_JSON_lookup_complex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D4449-E16F-45B4-AE8F-572236FB098A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E147638-A18F-4849-B4E2-26D35C43082A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,19 +34,19 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>$topic</t>
-  </si>
-  <si>
-    <t>$group</t>
-  </si>
-  <si>
-    <t>$release_date</t>
-  </si>
-  <si>
-    <t>$license_id</t>
-  </si>
-  <si>
-    <t>$format</t>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>release_date</t>
+  </si>
+  <si>
+    <t>license_id</t>
+  </si>
+  <si>
+    <t>format</t>
   </si>
   <si>
     <t>field_external_metadata</t>
@@ -416,10 +416,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/data-raw/eex_ddh_JSON_lookup_complex.xlsx
+++ b/data-raw/eex_ddh_JSON_lookup_complex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E147638-A18F-4849-B4E2-26D35C43082A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23803B5E-0652-473C-80DE-720D0B28EEDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>eex_field_JSON</t>
   </si>
@@ -43,16 +43,10 @@
     <t>release_date</t>
   </si>
   <si>
-    <t>license_id</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
     <t>field_external_metadata</t>
-  </si>
-  <si>
-    <t>field_license_wbddh</t>
   </si>
   <si>
     <t>field_format</t>
@@ -413,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,10 +448,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,10 +459,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,21 +470,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
